--- a/biology/Zoologie/Couleuvre_mince/Couleuvre_mince.xlsx
+++ b/biology/Zoologie/Couleuvre_mince/Couleuvre_mince.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thamnophis sauritus
-La Couleuvre mince, Thamnophis sauritus, est une espèce de serpents de la famille des Natricidae[1].
+La Couleuvre mince, Thamnophis sauritus, est une espèce de serpents de la famille des Natricidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans le sud-est de l'Illinois, dans l'Indiana, dans le Sud-Est de la Louisiane, dans le Mississippi, dans l'Alabama, en Géorgie, en Floride, dans le Tennessee, en Caroline du Sud, en Caroline du Nord, en Virginie, en Virginie-Occidentale, dans le Kentucky, dans l'Ohio, en Pennsylvanie, dans le New Jersey, dans le Delaware, dans le Maryland, dans le Michigan, dans l'État de New York, dans le Connecticut, dans le Massachusetts, dans le Vermont, dans le New Hampshire et dans le sud du Maine ;
 aux Bahamas ;
 au Mexique dans l’État de Tamaulipas ;
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa couleur de fond est beige clair avec des dessins noirs et une ligne orange vif sur le milieu du dos et une autre bleutée ou verte de chaque côté des flancs. Sa longueur est d'environ 70 cm.
 Elle se nourrit de grenouilles et de petits poissons.
@@ -579,9 +595,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (6 septembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (6 septembre 2013) :
 Thamnophis sauritus nitae Rossman, 1963
 Thamnophis sauritus sackenii (Kennicott, 1859)
 Thamnophis sauritus sauritus (Linnaeus, 1766)
@@ -613,7 +631,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Kennicott, 1859 : Notes on coluber calligaster of Say, and a description of a new species of Serpents in the collection of the north Western University of Evanston,Ill.. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 11, p. 98-100 (texte intégral).
 Linnaeus, 1766 : Systema naturæ per regna tria naturæ, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis. Tomus I. Editio duodecima, reformata. Laurentii Salvii, Stockholm, Holmiae, p. 1-532.
